--- a/Statistics/data/Student Goals Data.xlsx
+++ b/Statistics/data/Student Goals Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateuszzaremba/dev/R/Statistics/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E37BB6-7A32-2742-B3CF-1551ED7F5D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="18200" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
   <si>
     <t>seq</t>
   </si>
@@ -77,11 +83,14 @@
   <si>
     <t>mastgrad</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,6 +134,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +218,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,6 +270,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,21 +462,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T625"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="10.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="18" width="9.1640625" style="1"/>
+    <col min="19" max="19" width="10.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -554,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -616,7 +662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -678,7 +724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -740,7 +786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -802,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -864,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -926,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -988,13 +1034,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
@@ -1047,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1109,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1171,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1233,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1295,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1357,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1419,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1481,7 +1530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1543,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1605,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1664,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1726,7 +1775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1788,7 +1837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1850,7 +1899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1912,7 +1961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1974,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2033,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2095,7 +2144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2157,7 +2206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2219,7 +2268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2281,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2343,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2405,7 +2454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2467,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2529,7 +2578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2588,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2650,7 +2699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2712,7 +2761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2774,7 +2823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2836,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2898,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2960,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3022,7 +3071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3084,7 +3133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3146,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3208,7 +3257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3270,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3332,7 +3381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3394,7 +3443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3456,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3518,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3580,7 +3629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3642,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3704,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3766,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3828,7 +3877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3890,7 +3939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3952,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4014,7 +4063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4076,7 +4125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4138,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4200,7 +4249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4262,7 +4311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4324,7 +4373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4386,7 +4435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4448,7 +4497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4510,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4569,7 +4618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4631,7 +4680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4693,7 +4742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4752,7 +4801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4814,7 +4863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4876,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4938,7 +4987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5000,7 +5049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5059,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5121,7 +5170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5183,7 +5232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5245,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5307,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5366,7 +5415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5425,7 +5474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5487,7 +5536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5549,7 +5598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5611,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5673,7 +5722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5735,7 +5784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5797,7 +5846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5859,7 +5908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5921,7 +5970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5983,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -6045,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -6104,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -6166,7 +6215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -6228,7 +6277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -6290,7 +6339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -6352,7 +6401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -6414,7 +6463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6473,7 +6522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6535,7 +6584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6597,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6659,7 +6708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -6721,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -6780,7 +6829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -6842,7 +6891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6901,7 +6950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6963,7 +7012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7025,7 +7074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7087,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7149,7 +7198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7211,7 +7260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -7273,7 +7322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -7335,7 +7384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7397,7 +7446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7459,7 +7508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7521,7 +7570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7583,7 +7632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7645,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7707,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7769,7 +7818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7831,7 +7880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7890,7 +7939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7952,7 +8001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -8014,7 +8063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -8076,7 +8125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -8135,7 +8184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -8197,7 +8246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -8256,7 +8305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -8318,7 +8367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -8380,7 +8429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -8439,7 +8488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -8501,7 +8550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -8563,7 +8612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -8625,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -8684,7 +8733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -8743,7 +8792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -8805,7 +8854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -8867,7 +8916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -8929,7 +8978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -8991,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -9053,7 +9102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -9115,7 +9164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -9177,7 +9226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -9236,7 +9285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -9295,7 +9344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -9357,7 +9406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -9419,7 +9468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -9481,7 +9530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -9543,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -9605,7 +9654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -9667,7 +9716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -9729,7 +9778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -9791,7 +9840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -9853,7 +9902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -9915,7 +9964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -9977,7 +10026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -10039,7 +10088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -10101,7 +10150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -10163,7 +10212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -10225,7 +10274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -10287,7 +10336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -10349,7 +10398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -10411,7 +10460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -10473,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -10535,7 +10584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -10597,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -10659,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -10721,7 +10770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -10783,7 +10832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -10845,7 +10894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -10907,7 +10956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -10969,7 +11018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -11031,7 +11080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -11093,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -11149,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -11211,7 +11260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -11273,7 +11322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -11332,7 +11381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -11391,7 +11440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -11453,7 +11502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -11515,7 +11564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -11577,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -11639,7 +11688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -11701,7 +11750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -11763,7 +11812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -11825,7 +11874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -11887,7 +11936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -11949,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -12011,7 +12060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -12073,7 +12122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -12135,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -12197,7 +12246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -12256,7 +12305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -12318,7 +12367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -12374,7 +12423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -12436,7 +12485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -12498,7 +12547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -12557,7 +12606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -12619,7 +12668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -12681,7 +12730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -12743,7 +12792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -12805,7 +12854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -12867,7 +12916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -12929,7 +12978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -12991,7 +13040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -13053,7 +13102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -13115,7 +13164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -13177,7 +13226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -13239,7 +13288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -13301,7 +13350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -13363,7 +13412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -13425,7 +13474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -13487,7 +13536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -13549,7 +13598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -13611,7 +13660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -13673,7 +13722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -13735,7 +13784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -13797,7 +13846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -13859,7 +13908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -13921,7 +13970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -13983,7 +14032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -14045,7 +14094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -14107,7 +14156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -14169,7 +14218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -14231,7 +14280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -14293,7 +14342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -14355,7 +14404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -14417,7 +14466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -14479,7 +14528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -14541,7 +14590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -14603,7 +14652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -14665,7 +14714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -14724,7 +14773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -14786,7 +14835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -14848,7 +14897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -14910,7 +14959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -14972,7 +15021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -15034,7 +15083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -15090,7 +15139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -15152,7 +15201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -15214,7 +15263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -15276,7 +15325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -15338,7 +15387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -15400,7 +15449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -15456,7 +15505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -15518,7 +15567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -15580,7 +15629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -15639,7 +15688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -15701,7 +15750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -15763,7 +15812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -15825,7 +15874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -15887,7 +15936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -15946,7 +15995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -16008,7 +16057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -16064,7 +16113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -16126,7 +16175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -16188,7 +16237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -16247,7 +16296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -16309,7 +16358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -16371,7 +16420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -16433,7 +16482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -16495,7 +16544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -16557,7 +16606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -16619,7 +16668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -16681,7 +16730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -16743,7 +16792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -16805,7 +16854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -16867,7 +16916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -16929,7 +16978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -16991,7 +17040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -17053,7 +17102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -17115,7 +17164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -17177,7 +17226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -17239,7 +17288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -17301,7 +17350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -17363,7 +17412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -17425,7 +17474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -17487,7 +17536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -17546,7 +17595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -17605,7 +17654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -17664,7 +17713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -17726,7 +17775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -17788,7 +17837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -17850,7 +17899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -17912,7 +17961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -17974,7 +18023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -18036,7 +18085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -18095,7 +18144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -18157,7 +18206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -18216,7 +18265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -18272,7 +18321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -18334,7 +18383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -18393,7 +18442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -18452,7 +18501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -18514,7 +18563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -18576,7 +18625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -18638,7 +18687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -18697,7 +18746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -18759,7 +18808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -18818,7 +18867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -18880,7 +18929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -18942,7 +18991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -19001,7 +19050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -19063,7 +19112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -19125,7 +19174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -19187,7 +19236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -19249,7 +19298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -19311,7 +19360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -19373,7 +19422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -19435,7 +19484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -19497,7 +19546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -19559,7 +19608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -19621,7 +19670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -19683,7 +19732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -19745,7 +19794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -19807,7 +19856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -19866,7 +19915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -19928,7 +19977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -19990,7 +20039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -20052,7 +20101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -20114,7 +20163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -20176,7 +20225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -20238,7 +20287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -20300,7 +20349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -20362,7 +20411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -20424,7 +20473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -20486,7 +20535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -20548,7 +20597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -20610,7 +20659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -20672,7 +20721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -20734,7 +20783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -20796,7 +20845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -20858,7 +20907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -20920,7 +20969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -20982,7 +21031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -21044,7 +21093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -21106,7 +21155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -21165,7 +21214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -21227,7 +21276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -21286,7 +21335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -21348,7 +21397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -21410,7 +21459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -21469,7 +21518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -21531,7 +21580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -21590,7 +21639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -21652,7 +21701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -21714,7 +21763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -21776,7 +21825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -21838,7 +21887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -21900,7 +21949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -21962,7 +22011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -22024,7 +22073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -22086,7 +22135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -22148,7 +22197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -22210,7 +22259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -22272,7 +22321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -22334,7 +22383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -22393,7 +22442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -22452,7 +22501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -22514,7 +22563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -22576,7 +22625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -22638,7 +22687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -22700,7 +22749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -22762,7 +22811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -22824,7 +22873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -22886,7 +22935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -22948,7 +22997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -23010,7 +23059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -23072,7 +23121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -23134,7 +23183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -23196,7 +23245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -23258,7 +23307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -23317,7 +23366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -23379,7 +23428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -23441,7 +23490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -23503,7 +23552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -23565,7 +23614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -23627,7 +23676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -23689,7 +23738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -23748,7 +23797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -23810,7 +23859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -23872,7 +23921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -23931,7 +23980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -23993,7 +24042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -24055,7 +24104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -24117,7 +24166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -24179,7 +24228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -24238,7 +24287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -24300,7 +24349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -24362,7 +24411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -24424,7 +24473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -24486,7 +24535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -24548,7 +24597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -24610,7 +24659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -24672,7 +24721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -24734,7 +24783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -24796,7 +24845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -24858,7 +24907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -24920,7 +24969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -24979,7 +25028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -25041,7 +25090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -25100,7 +25149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -25159,7 +25208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -25221,7 +25270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -25283,7 +25332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -25345,7 +25394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -25407,7 +25456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -25469,7 +25518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -25531,7 +25580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -25593,7 +25642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -25655,7 +25704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -25717,7 +25766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -25776,7 +25825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -25838,7 +25887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -25897,7 +25946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -25959,7 +26008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -26021,7 +26070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -26083,7 +26132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -26145,7 +26194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -26207,7 +26256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -26269,7 +26318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -26331,7 +26380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -26387,7 +26436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -26449,7 +26498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -26508,7 +26557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -26570,7 +26619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -26632,7 +26681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -26694,7 +26743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -26750,7 +26799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -26812,7 +26861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -26874,7 +26923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -26936,7 +26985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -26998,7 +27047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -27060,7 +27109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -27119,7 +27168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -27175,7 +27224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -27237,7 +27286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -27299,7 +27348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -27361,7 +27410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -27420,7 +27469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -27482,7 +27531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -27544,7 +27593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -27606,7 +27655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -27668,7 +27717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -27730,7 +27779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -27792,7 +27841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -27851,7 +27900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -27913,7 +27962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -27975,7 +28024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -28037,7 +28086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -28099,7 +28148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -28158,7 +28207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -28214,7 +28263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -28276,7 +28325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -28338,7 +28387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -28400,7 +28449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -28462,7 +28511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -28521,7 +28570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -28583,7 +28632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -28645,7 +28694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -28707,7 +28756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -28769,7 +28818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -28831,7 +28880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -28893,7 +28942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -28955,7 +29004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -29017,7 +29066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -29079,7 +29128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -29141,7 +29190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -29203,7 +29252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -29265,7 +29314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -29327,7 +29376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -29389,7 +29438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -29451,7 +29500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -29510,7 +29559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -29572,7 +29621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -29634,7 +29683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -29696,7 +29745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -29758,7 +29807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -29820,7 +29869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -29882,7 +29931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -29944,7 +29993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -30006,7 +30055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -30068,7 +30117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -30130,7 +30179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -30192,7 +30241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -30254,7 +30303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -30316,7 +30365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -30378,7 +30427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -30440,7 +30489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -30502,7 +30551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -30564,7 +30613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -30626,7 +30675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -30685,7 +30734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -30744,7 +30793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -30803,7 +30852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -30865,7 +30914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -30927,7 +30976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -30989,7 +31038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -31051,7 +31100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -31113,7 +31162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -31172,7 +31221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -31234,7 +31283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -31296,7 +31345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -31355,7 +31404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -31417,7 +31466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -31479,7 +31528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -31541,7 +31590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -31603,7 +31652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -31662,7 +31711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -31724,7 +31773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -31786,7 +31835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -31848,7 +31897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -31910,7 +31959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -31972,7 +32021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -32034,7 +32083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -32096,7 +32145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -32152,7 +32201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -32214,7 +32263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -32276,7 +32325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="519" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -32338,7 +32387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -32400,7 +32449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -32462,7 +32511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -32524,7 +32573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -32586,7 +32635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -32648,7 +32697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -32710,7 +32759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -32772,7 +32821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -32834,7 +32883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -32896,7 +32945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -32958,7 +33007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -33020,7 +33069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="531" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -33082,7 +33131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -33144,7 +33193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -33206,7 +33255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -33268,7 +33317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -33330,7 +33379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -33389,7 +33438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -33451,7 +33500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -33510,7 +33559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -33572,7 +33621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -33634,7 +33683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -33696,7 +33745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -33758,7 +33807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -33820,7 +33869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="544" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -33882,7 +33931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="545" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -33944,7 +33993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -34006,7 +34055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -34068,7 +34117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -34130,7 +34179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -34192,7 +34241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -34254,7 +34303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -34316,7 +34365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -34378,7 +34427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -34440,7 +34489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="554" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -34502,7 +34551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -34564,7 +34613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -34626,7 +34675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -34688,7 +34737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="558" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -34750,7 +34799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -34812,7 +34861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -34874,7 +34923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -34936,7 +34985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -34998,7 +35047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -35060,7 +35109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -35122,7 +35171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -35184,7 +35233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -35246,7 +35295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -35302,7 +35351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -35364,7 +35413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -35426,7 +35475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -35488,7 +35537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="571" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -35550,7 +35599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -35612,7 +35661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -35674,7 +35723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -35736,7 +35785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -35798,7 +35847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -35860,7 +35909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="577" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -35916,7 +35965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="578" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -35978,7 +36027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="579" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -36040,7 +36089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="580" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -36102,7 +36151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="581" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -36161,7 +36210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -36223,7 +36272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -36285,7 +36334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -36344,7 +36393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -36406,7 +36455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -36462,7 +36511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="587" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -36524,7 +36573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="588" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -36586,7 +36635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="589" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -36648,7 +36697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -36710,7 +36759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -36772,7 +36821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -36834,7 +36883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -36896,7 +36945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -36958,7 +37007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -37020,7 +37069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -37082,7 +37131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="597" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -37144,7 +37193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -37206,7 +37255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -37268,7 +37317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="600" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -37330,7 +37379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -37392,7 +37441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="602" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -37454,7 +37503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -37513,7 +37562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -37572,7 +37621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -37634,7 +37683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -37696,7 +37745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -37758,7 +37807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -37820,7 +37869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -37882,7 +37931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="610" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -37944,7 +37993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -38006,7 +38055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="612" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -38068,7 +38117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="613" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -38130,7 +38179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -38192,7 +38241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -38254,7 +38303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -38316,7 +38365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="617" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -38378,7 +38427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -38440,7 +38489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -38502,7 +38551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -38564,7 +38613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -38626,7 +38675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -38685,7 +38734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -38747,7 +38796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -38809,7 +38858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -38874,16 +38923,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -38948,97 +38997,97 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -39049,12 +39098,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
